--- a/corona-virus-cases_Aug_09_2020.xlsx
+++ b/corona-virus-cases_Aug_09_2020.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="239">
   <si>
     <t>Country</t>
   </si>
@@ -67,6 +67,9 @@
     <t>1 Test every X ppl</t>
   </si>
   <si>
+    <t>Region</t>
+  </si>
+  <si>
     <t>USA</t>
   </si>
   <si>
@@ -601,18 +604,18 @@
     <t>Cayman Islands</t>
   </si>
   <si>
+    <t>Turks and Caicos</t>
+  </si>
+  <si>
     <t>Gibraltar</t>
   </si>
   <si>
+    <t>Sint Maarten</t>
+  </si>
+  <si>
     <t>Papua New Guinea</t>
   </si>
   <si>
-    <t>Sint Maarten</t>
-  </si>
-  <si>
-    <t>Turks and Caicos</t>
-  </si>
-  <si>
     <t>Bermuda</t>
   </si>
   <si>
@@ -710,6 +713,24 @@
   </si>
   <si>
     <t>Anguilla</t>
+  </si>
+  <si>
+    <t>North America</t>
+  </si>
+  <si>
+    <t>South America</t>
+  </si>
+  <si>
+    <t>Asia</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>Australia/Oceania</t>
   </si>
 </sst>
 </file>
@@ -1067,13 +1088,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R216"/>
+  <dimension ref="A1:S216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1125,49 +1146,52 @@
       <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2">
-        <v>5149723</v>
+        <v>5150060</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>337</v>
       </c>
       <c r="E2">
-        <v>165070</v>
+        <v>165074</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>2638470</v>
+        <v>2638673</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="I2">
-        <v>2346183</v>
+        <v>2346313</v>
       </c>
       <c r="J2">
         <v>18020</v>
       </c>
       <c r="K2">
-        <v>15548</v>
+        <v>15549</v>
       </c>
       <c r="L2">
         <v>498</v>
       </c>
       <c r="M2">
-        <v>64610548</v>
+        <v>64614448</v>
       </c>
       <c r="N2">
-        <v>195075</v>
+        <v>195087</v>
       </c>
       <c r="O2">
         <v>331208704</v>
@@ -1181,13 +1205,16 @@
       <c r="R2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="S2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>3013369</v>
@@ -1237,40 +1264,43 @@
       <c r="R3">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="S3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4">
-        <v>2153010</v>
+        <v>2156443</v>
       </c>
       <c r="D4">
-        <v>990</v>
+        <v>4423</v>
       </c>
       <c r="E4">
-        <v>43453</v>
+        <v>43488</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="G4">
-        <v>1480884</v>
+        <v>1481666</v>
       </c>
       <c r="H4">
-        <v>1080</v>
+        <v>1862</v>
       </c>
       <c r="I4">
-        <v>628673</v>
+        <v>631289</v>
       </c>
       <c r="J4">
         <v>8944</v>
       </c>
       <c r="K4">
-        <v>1559</v>
+        <v>1561</v>
       </c>
       <c r="L4">
         <v>31</v>
@@ -1285,48 +1315,51 @@
         <v>1381419136</v>
       </c>
       <c r="P4">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="Q4">
-        <v>31791</v>
+        <v>31766</v>
       </c>
       <c r="R4">
         <v>57</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="S4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5">
-        <v>882347</v>
+        <v>887536</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>5189</v>
       </c>
       <c r="E5">
-        <v>14854</v>
+        <v>14931</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="G5">
-        <v>690207</v>
+        <v>693422</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3215</v>
       </c>
       <c r="I5">
-        <v>177286</v>
+        <v>179183</v>
       </c>
       <c r="J5">
         <v>2300</v>
       </c>
       <c r="K5">
-        <v>6046</v>
+        <v>6081</v>
       </c>
       <c r="L5">
         <v>102</v>
@@ -1341,21 +1374,24 @@
         <v>145941264</v>
       </c>
       <c r="P5">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q5">
-        <v>9825</v>
+        <v>9774</v>
       </c>
       <c r="R5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="S5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <v>553188</v>
@@ -1405,13 +1441,16 @@
       <c r="R6">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="S6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7">
         <v>475902</v>
@@ -1461,13 +1500,16 @@
       <c r="R7">
         <v>119</v>
       </c>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="S7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8">
         <v>471012</v>
@@ -1517,13 +1559,16 @@
       <c r="R8">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="S8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9">
         <v>376870</v>
@@ -1573,13 +1618,16 @@
       <c r="R9">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="S9" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10">
         <v>371023</v>
@@ -1629,13 +1677,16 @@
       <c r="R10">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="S10" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11">
         <v>361442</v>
@@ -1685,13 +1736,16 @@
       <c r="R11">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="S11" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12">
         <v>324692</v>
@@ -1741,13 +1795,16 @@
       <c r="R12">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="S12" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13">
         <v>309763</v>
@@ -1797,13 +1854,16 @@
       <c r="R13">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="S13" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14">
         <v>287262</v>
@@ -1853,69 +1913,75 @@
       <c r="R14">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="S14" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15">
-        <v>283487</v>
+        <v>284121</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>634</v>
       </c>
       <c r="E15">
-        <v>6068</v>
+        <v>6082</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G15">
-        <v>259604</v>
+        <v>260248</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>644</v>
       </c>
       <c r="I15">
-        <v>17815</v>
+        <v>17791</v>
       </c>
       <c r="J15">
-        <v>801</v>
+        <v>791</v>
       </c>
       <c r="K15">
-        <v>1281</v>
+        <v>1284</v>
       </c>
       <c r="L15">
         <v>27</v>
       </c>
       <c r="M15">
-        <v>2103699</v>
+        <v>2127089</v>
       </c>
       <c r="N15">
-        <v>9505</v>
+        <v>9611</v>
       </c>
       <c r="O15">
         <v>221319328</v>
       </c>
       <c r="P15">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="Q15">
-        <v>36473</v>
+        <v>36389</v>
       </c>
       <c r="R15">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>104</v>
+      </c>
+      <c r="S15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16">
         <v>255113</v>
@@ -1965,13 +2031,16 @@
       <c r="R16">
         <v>132</v>
       </c>
-    </row>
-    <row r="17" spans="1:18">
+      <c r="S16" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17">
         <v>250103</v>
@@ -2021,13 +2090,16 @@
       <c r="R17">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:18">
+      <c r="S17" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C18">
         <v>241811</v>
@@ -2077,13 +2149,16 @@
       <c r="R18">
         <v>55</v>
       </c>
-    </row>
-    <row r="19" spans="1:18">
+      <c r="S18" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>239622</v>
@@ -2133,13 +2208,16 @@
       <c r="R19">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:18">
+      <c r="S19" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C20">
         <v>216896</v>
@@ -2189,13 +2267,16 @@
       <c r="R20">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:18">
+      <c r="S20" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21">
         <v>197921</v>
@@ -2245,13 +2326,16 @@
       <c r="R21">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:18">
+      <c r="S21" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22">
         <v>147389</v>
@@ -2301,13 +2385,16 @@
       <c r="R22">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:18">
+      <c r="S22" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23">
         <v>126885</v>
@@ -2357,13 +2444,16 @@
       <c r="R23">
         <v>63</v>
       </c>
-    </row>
-    <row r="24" spans="1:18">
+      <c r="S23" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C24">
         <v>123503</v>
@@ -2413,13 +2503,16 @@
       <c r="R24">
         <v>162</v>
       </c>
-    </row>
-    <row r="25" spans="1:18">
+      <c r="S24" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C25">
         <v>119221</v>
@@ -2469,13 +2562,16 @@
       <c r="R25">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="1:18">
+      <c r="S25" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C26">
         <v>112650</v>
@@ -2525,13 +2621,16 @@
       <c r="R26">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:18">
+      <c r="S26" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C27">
         <v>98701</v>
@@ -2581,13 +2680,16 @@
       <c r="R27">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="1:18">
+      <c r="S27" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C28">
         <v>95314</v>
@@ -2637,13 +2739,16 @@
       <c r="R28">
         <v>759</v>
       </c>
-    </row>
-    <row r="29" spans="1:18">
+      <c r="S28" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C29">
         <v>93572</v>
@@ -2693,13 +2798,16 @@
       <c r="R29">
         <v>67</v>
       </c>
-    </row>
-    <row r="30" spans="1:18">
+      <c r="S29" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C30">
         <v>89055</v>
@@ -2749,13 +2857,16 @@
       <c r="R30">
         <v>62</v>
       </c>
-    </row>
-    <row r="31" spans="1:18">
+      <c r="S30" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C31">
         <v>84619</v>
@@ -2805,43 +2916,46 @@
       <c r="R31">
         <v>16</v>
       </c>
-    </row>
-    <row r="32" spans="1:18">
+      <c r="S31" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C32">
-        <v>82324</v>
+        <v>82465</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="E32">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>57071</v>
+        <v>57482</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>411</v>
       </c>
       <c r="I32">
-        <v>24660</v>
+        <v>24389</v>
       </c>
       <c r="J32">
         <v>388</v>
       </c>
       <c r="K32">
-        <v>8951</v>
+        <v>8966</v>
       </c>
       <c r="L32">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M32">
         <v>1872453</v>
@@ -2856,18 +2970,21 @@
         <v>112</v>
       </c>
       <c r="Q32">
-        <v>15510</v>
+        <v>15484</v>
       </c>
       <c r="R32">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:18">
+      <c r="S32" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C33">
         <v>82323</v>
@@ -2917,13 +3034,16 @@
       <c r="R33">
         <v>12</v>
       </c>
-    </row>
-    <row r="34" spans="1:18">
+      <c r="S33" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C34">
         <v>81357</v>
@@ -2973,13 +3093,16 @@
       <c r="R34">
         <v>17</v>
       </c>
-    </row>
-    <row r="35" spans="1:18">
+      <c r="S34" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C35">
         <v>79750</v>
@@ -3029,13 +3152,16 @@
       <c r="R35">
         <v>38</v>
       </c>
-    </row>
-    <row r="36" spans="1:18">
+      <c r="S35" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C36">
         <v>78778</v>
@@ -3085,13 +3211,16 @@
       <c r="R36">
         <v>37</v>
       </c>
-    </row>
-    <row r="37" spans="1:18">
+      <c r="S36" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C37">
         <v>73651</v>
@@ -3141,13 +3270,16 @@
       <c r="R37">
         <v>17</v>
       </c>
-    </row>
-    <row r="38" spans="1:18">
+      <c r="S37" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C38">
         <v>73401</v>
@@ -3197,13 +3329,16 @@
       <c r="R38">
         <v>6</v>
       </c>
-    </row>
-    <row r="39" spans="1:18">
+      <c r="S38" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C39">
         <v>71199</v>
@@ -3253,13 +3388,16 @@
       <c r="R39">
         <v>8</v>
       </c>
-    </row>
-    <row r="40" spans="1:18">
+      <c r="S39" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C40">
         <v>68738</v>
@@ -3309,13 +3447,16 @@
       <c r="R40">
         <v>7</v>
       </c>
-    </row>
-    <row r="41" spans="1:18">
+      <c r="S40" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C41">
         <v>62300</v>
@@ -3365,13 +3506,16 @@
       <c r="R41">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:18">
+      <c r="S41" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C42">
         <v>60623</v>
@@ -3421,13 +3565,16 @@
       <c r="R42">
         <v>14</v>
       </c>
-    </row>
-    <row r="43" spans="1:18">
+      <c r="S42" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C43">
         <v>57987</v>
@@ -3477,13 +3624,16 @@
       <c r="R43">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="1:18">
+      <c r="S43" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C44">
         <v>56189</v>
@@ -3533,13 +3683,16 @@
       <c r="R44">
         <v>102</v>
       </c>
-    </row>
-    <row r="45" spans="1:18">
+      <c r="S44" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C45">
         <v>54929</v>
@@ -3589,13 +3742,16 @@
       <c r="R45">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="1:18">
+      <c r="S45" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C46">
         <v>52537</v>
@@ -3645,13 +3801,16 @@
       <c r="R46">
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="1:18">
+      <c r="S46" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C47">
         <v>51167</v>
@@ -3701,13 +3860,16 @@
       <c r="R47">
         <v>17</v>
       </c>
-    </row>
-    <row r="48" spans="1:18">
+      <c r="S47" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C48">
         <v>46973</v>
@@ -3757,13 +3919,16 @@
       <c r="R48">
         <v>86</v>
       </c>
-    </row>
-    <row r="49" spans="1:18">
+      <c r="S48" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C49">
         <v>46140</v>
@@ -3813,13 +3978,16 @@
       <c r="R49">
         <v>665</v>
       </c>
-    </row>
-    <row r="50" spans="1:18">
+      <c r="S49" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C50">
         <v>45439</v>
@@ -3869,13 +4037,16 @@
       <c r="R50">
         <v>128</v>
       </c>
-    </row>
-    <row r="51" spans="1:18">
+      <c r="S50" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C51">
         <v>43629</v>
@@ -3925,13 +4096,16 @@
       <c r="R51">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="1:18">
+      <c r="S51" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C52">
         <v>40533</v>
@@ -3981,13 +4155,16 @@
       <c r="R52">
         <v>76</v>
       </c>
-    </row>
-    <row r="53" spans="1:18">
+      <c r="S52" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19">
       <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C53">
         <v>40185</v>
@@ -4037,43 +4214,46 @@
       <c r="R53">
         <v>17</v>
       </c>
-    </row>
-    <row r="54" spans="1:18">
+      <c r="S53" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19">
       <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C54">
-        <v>39571</v>
+        <v>39919</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>332</v>
       </c>
       <c r="E54">
-        <v>1459</v>
+        <v>1468</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G54">
-        <v>31062</v>
+        <v>31822</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>374</v>
       </c>
       <c r="I54">
-        <v>7050</v>
+        <v>6629</v>
       </c>
       <c r="J54">
         <v>24</v>
       </c>
       <c r="K54">
-        <v>6055</v>
+        <v>6108</v>
       </c>
       <c r="L54">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="M54">
         <v>267718</v>
@@ -4085,21 +4265,24 @@
         <v>6535067</v>
       </c>
       <c r="P54">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q54">
-        <v>4479</v>
+        <v>4452</v>
       </c>
       <c r="R54">
         <v>24</v>
       </c>
-    </row>
-    <row r="55" spans="1:18">
+      <c r="S54" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19">
       <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C55">
         <v>37054</v>
@@ -4149,13 +4332,16 @@
       <c r="R55">
         <v>421</v>
       </c>
-    </row>
-    <row r="56" spans="1:18">
+      <c r="S55" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19">
       <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C56">
         <v>36451</v>
@@ -4170,13 +4356,13 @@
         <v>0</v>
       </c>
       <c r="G56">
-        <v>31900</v>
+        <v>32000</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I56">
-        <v>2565</v>
+        <v>2465</v>
       </c>
       <c r="J56">
         <v>21</v>
@@ -4205,13 +4391,16 @@
       <c r="R56">
         <v>10</v>
       </c>
-    </row>
-    <row r="57" spans="1:18">
+      <c r="S56" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19">
       <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C57">
         <v>34693</v>
@@ -4261,13 +4450,16 @@
       <c r="R57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:18">
+      <c r="S57" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19">
       <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C58">
         <v>33481</v>
@@ -4317,13 +4509,16 @@
       <c r="R58">
         <v>13</v>
       </c>
-    </row>
-    <row r="59" spans="1:18">
+      <c r="S58" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19">
       <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C59">
         <v>32007</v>
@@ -4373,13 +4568,16 @@
       <c r="R59">
         <v>26</v>
       </c>
-    </row>
-    <row r="60" spans="1:18">
+      <c r="S59" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19">
       <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C60">
         <v>30197</v>
@@ -4429,13 +4627,16 @@
       <c r="R60">
         <v>24</v>
       </c>
-    </row>
-    <row r="61" spans="1:18">
+      <c r="S60" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19">
       <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C61">
         <v>27863</v>
@@ -4485,13 +4686,16 @@
       <c r="R61">
         <v>12</v>
       </c>
-    </row>
-    <row r="62" spans="1:18">
+      <c r="S61" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19">
       <c r="A62" s="1">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C62">
         <v>27443</v>
@@ -4541,13 +4745,16 @@
       <c r="R62">
         <v>31</v>
       </c>
-    </row>
-    <row r="63" spans="1:18">
+      <c r="S62" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19">
       <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C63">
         <v>26644</v>
@@ -4597,13 +4804,16 @@
       <c r="R63">
         <v>7</v>
       </c>
-    </row>
-    <row r="64" spans="1:18">
+      <c r="S63" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19">
       <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C64">
         <v>25837</v>
@@ -4653,13 +4863,16 @@
       <c r="R64">
         <v>154</v>
       </c>
-    </row>
-    <row r="65" spans="1:18">
+      <c r="S64" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19">
       <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C65">
         <v>24961</v>
@@ -4709,13 +4922,16 @@
       <c r="R65">
         <v>18</v>
       </c>
-    </row>
-    <row r="66" spans="1:18">
+      <c r="S65" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19">
       <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C66">
         <v>22802</v>
@@ -4765,13 +4981,16 @@
       <c r="R66">
         <v>51</v>
       </c>
-    </row>
-    <row r="67" spans="1:18">
+      <c r="S66" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19">
       <c r="A67" s="1">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C67">
         <v>22592</v>
@@ -4821,13 +5040,16 @@
       <c r="R67">
         <v>39</v>
       </c>
-    </row>
-    <row r="68" spans="1:18">
+      <c r="S67" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19">
       <c r="A68" s="1">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C68">
         <v>22253</v>
@@ -4877,13 +5099,16 @@
       <c r="R68">
         <v>236</v>
       </c>
-    </row>
-    <row r="69" spans="1:18">
+      <c r="S68" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19">
       <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C69">
         <v>21919</v>
@@ -4933,13 +5158,16 @@
       <c r="R69">
         <v>9</v>
       </c>
-    </row>
-    <row r="70" spans="1:18">
+      <c r="S69" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19">
       <c r="A70" s="1">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C70">
         <v>21084</v>
@@ -4989,13 +5217,16 @@
       <c r="R70">
         <v>5</v>
       </c>
-    </row>
-    <row r="71" spans="1:18">
+      <c r="S70" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19">
       <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C71">
         <v>19978</v>
@@ -5045,13 +5276,16 @@
       <c r="R71">
         <v>25</v>
       </c>
-    </row>
-    <row r="72" spans="1:18">
+      <c r="S71" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19">
       <c r="A72" s="1">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C72">
         <v>18235</v>
@@ -5101,13 +5335,16 @@
       <c r="R72">
         <v>14</v>
       </c>
-    </row>
-    <row r="73" spans="1:18">
+      <c r="S72" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19">
       <c r="A73" s="1">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C73">
         <v>18042</v>
@@ -5157,13 +5394,16 @@
       <c r="R73">
         <v>179</v>
       </c>
-    </row>
-    <row r="74" spans="1:18">
+      <c r="S73" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19">
       <c r="A74" s="1">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C74">
         <v>16620</v>
@@ -5213,13 +5453,16 @@
       <c r="R74">
         <v>248</v>
       </c>
-    </row>
-    <row r="75" spans="1:18">
+      <c r="S74" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19">
       <c r="A75" s="1">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C75">
         <v>14598</v>
@@ -5269,13 +5512,16 @@
       <c r="R75">
         <v>32</v>
       </c>
-    </row>
-    <row r="76" spans="1:18">
+      <c r="S75" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19">
       <c r="A76" s="1">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C76">
         <v>14442</v>
@@ -5325,13 +5571,16 @@
       <c r="R76">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="1:18">
+      <c r="S76" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19">
       <c r="A77" s="1">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C77">
         <v>13928</v>
@@ -5381,13 +5630,16 @@
       <c r="R77">
         <v>26</v>
       </c>
-    </row>
-    <row r="78" spans="1:18">
+      <c r="S77" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19">
       <c r="A78" s="1">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C78">
         <v>13687</v>
@@ -5437,13 +5689,16 @@
       <c r="R78">
         <v>22</v>
       </c>
-    </row>
-    <row r="79" spans="1:18">
+      <c r="S78" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19">
       <c r="A79" s="1">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C79">
         <v>13343</v>
@@ -5493,13 +5748,16 @@
       <c r="R79">
         <v>23</v>
       </c>
-    </row>
-    <row r="80" spans="1:18">
+      <c r="S79" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19">
       <c r="A80" s="1">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C80">
         <v>12922</v>
@@ -5549,13 +5807,16 @@
       <c r="R80">
         <v>581</v>
       </c>
-    </row>
-    <row r="81" spans="1:18">
+      <c r="S80" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19">
       <c r="A81" s="1">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C81">
         <v>11894</v>
@@ -5605,13 +5866,16 @@
       <c r="R81">
         <v>109599</v>
       </c>
-    </row>
-    <row r="82" spans="1:18">
+      <c r="S81" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19">
       <c r="A82" s="1">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C82">
         <v>11754</v>
@@ -5661,13 +5925,16 @@
       <c r="R82">
         <v>18</v>
       </c>
-    </row>
-    <row r="83" spans="1:18">
+      <c r="S82" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19">
       <c r="A83" s="1">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C83">
         <v>11003</v>
@@ -5717,13 +5984,16 @@
       <c r="R83">
         <v>144</v>
       </c>
-    </row>
-    <row r="84" spans="1:18">
+      <c r="S83" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19">
       <c r="A84" s="1">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C84">
         <v>9599</v>
@@ -5773,13 +6043,16 @@
       <c r="R84">
         <v>11</v>
       </c>
-    </row>
-    <row r="85" spans="1:18">
+      <c r="S84" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19">
       <c r="A85" s="1">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C85">
         <v>9436</v>
@@ -5829,13 +6102,16 @@
       <c r="R85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:18">
+      <c r="S85" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19">
       <c r="A86" s="1">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C86">
         <v>9070</v>
@@ -5885,13 +6161,16 @@
       <c r="R86">
         <v>31</v>
       </c>
-    </row>
-    <row r="87" spans="1:18">
+      <c r="S86" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19">
       <c r="A87" s="1">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C87">
         <v>8267</v>
@@ -5941,13 +6220,16 @@
       <c r="R87">
         <v>7</v>
       </c>
-    </row>
-    <row r="88" spans="1:18">
+      <c r="S87" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19">
       <c r="A88" s="1">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C88">
         <v>7923</v>
@@ -5997,13 +6279,16 @@
       <c r="R88">
         <v>25</v>
       </c>
-    </row>
-    <row r="89" spans="1:18">
+      <c r="S88" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19">
       <c r="A89" s="1">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C89">
         <v>7903</v>
@@ -6053,13 +6338,16 @@
       <c r="R89">
         <v>200</v>
       </c>
-    </row>
-    <row r="90" spans="1:18">
+      <c r="S89" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19">
       <c r="A90" s="1">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C90">
         <v>7875</v>
@@ -6109,13 +6397,16 @@
       <c r="R90">
         <v>914</v>
       </c>
-    </row>
-    <row r="91" spans="1:18">
+      <c r="S90" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19">
       <c r="A91" s="1">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C91">
         <v>7706</v>
@@ -6165,13 +6456,16 @@
       <c r="R91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:18">
+      <c r="S91" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19">
       <c r="A92" s="1">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C92">
         <v>7611</v>
@@ -6221,13 +6515,16 @@
       <c r="R92">
         <v>603</v>
       </c>
-    </row>
-    <row r="93" spans="1:18">
+      <c r="S92" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19">
       <c r="A93" s="1">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C93">
         <v>7568</v>
@@ -6277,13 +6574,16 @@
       <c r="R93">
         <v>14</v>
       </c>
-    </row>
-    <row r="94" spans="1:18">
+      <c r="S93" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19">
       <c r="A94" s="1">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C94">
         <v>7169</v>
@@ -6333,13 +6633,16 @@
       <c r="R94">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:18">
+      <c r="S94" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19">
       <c r="A95" s="1">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C95">
         <v>6705</v>
@@ -6389,13 +6692,16 @@
       <c r="R95">
         <v>52</v>
       </c>
-    </row>
-    <row r="96" spans="1:18">
+      <c r="S95" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19">
       <c r="A96" s="1">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C96">
         <v>6510</v>
@@ -6445,13 +6751,16 @@
       <c r="R96">
         <v>81</v>
       </c>
-    </row>
-    <row r="97" spans="1:18">
+      <c r="S96" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19">
       <c r="A97" s="1">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C97">
         <v>6275</v>
@@ -6501,13 +6810,16 @@
       <c r="R97">
         <v>71</v>
       </c>
-    </row>
-    <row r="98" spans="1:18">
+      <c r="S97" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19">
       <c r="A98" s="1">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C98">
         <v>6223</v>
@@ -6557,13 +6869,16 @@
       <c r="R98">
         <v>19</v>
       </c>
-    </row>
-    <row r="99" spans="1:18">
+      <c r="S98" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19">
       <c r="A99" s="1">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C99">
         <v>5543</v>
@@ -6613,13 +6928,16 @@
       <c r="R99">
         <v>32</v>
       </c>
-    </row>
-    <row r="100" spans="1:18">
+      <c r="S99" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19">
       <c r="A100" s="1">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C100">
         <v>5421</v>
@@ -6669,13 +6987,16 @@
       <c r="R100">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="1:18">
+      <c r="S100" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19">
       <c r="A101" s="1">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C101">
         <v>5338</v>
@@ -6725,13 +7046,16 @@
       <c r="R101">
         <v>17</v>
       </c>
-    </row>
-    <row r="102" spans="1:18">
+      <c r="S101" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19">
       <c r="A102" s="1">
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C102">
         <v>5232</v>
@@ -6781,13 +7105,16 @@
       <c r="R102">
         <v>113</v>
       </c>
-    </row>
-    <row r="103" spans="1:18">
+      <c r="S102" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19">
       <c r="A103" s="1">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C103">
         <v>4898</v>
@@ -6837,13 +7164,16 @@
       <c r="R103">
         <v>6</v>
       </c>
-    </row>
-    <row r="104" spans="1:18">
+      <c r="S103" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19">
       <c r="A104" s="1">
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C104">
         <v>4821</v>
@@ -6893,19 +7223,22 @@
       <c r="R104">
         <v>32</v>
       </c>
-    </row>
-    <row r="105" spans="1:18">
+      <c r="S104" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19">
       <c r="A105" s="1">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C105">
-        <v>4653</v>
+        <v>4696</v>
       </c>
       <c r="D105">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="E105">
         <v>602</v>
@@ -6914,34 +7247,34 @@
         <v>0</v>
       </c>
       <c r="G105">
-        <v>3491</v>
+        <v>3499</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I105">
-        <v>560</v>
+        <v>595</v>
       </c>
       <c r="J105">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K105">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="L105">
         <v>62</v>
       </c>
       <c r="M105">
-        <v>358437</v>
+        <v>360772</v>
       </c>
       <c r="N105">
-        <v>37114</v>
+        <v>37356</v>
       </c>
       <c r="O105">
         <v>9657651</v>
       </c>
       <c r="P105">
-        <v>2076</v>
+        <v>2057</v>
       </c>
       <c r="Q105">
         <v>16043</v>
@@ -6949,13 +7282,16 @@
       <c r="R105">
         <v>27</v>
       </c>
-    </row>
-    <row r="106" spans="1:18">
+      <c r="S105" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19">
       <c r="A106" s="1">
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C106">
         <v>4641</v>
@@ -7005,13 +7341,16 @@
       <c r="R106">
         <v>162</v>
       </c>
-    </row>
-    <row r="107" spans="1:18">
+      <c r="S106" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19">
       <c r="A107" s="1">
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C107">
         <v>4624</v>
@@ -7061,13 +7400,16 @@
       <c r="R107">
         <v>557</v>
       </c>
-    </row>
-    <row r="108" spans="1:18">
+      <c r="S107" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19">
       <c r="A108" s="1">
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C108">
         <v>4575</v>
@@ -7117,13 +7459,16 @@
       <c r="R108">
         <v>100</v>
       </c>
-    </row>
-    <row r="109" spans="1:18">
+      <c r="S108" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19">
       <c r="A109" s="1">
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C109">
         <v>4008</v>
@@ -7132,10 +7477,10 @@
         <v>0</v>
       </c>
       <c r="E109">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G109">
         <v>2755</v>
@@ -7144,7 +7489,7 @@
         <v>0</v>
       </c>
       <c r="I109">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="J109">
         <v>45</v>
@@ -7153,7 +7498,7 @@
         <v>534</v>
       </c>
       <c r="L109">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M109">
         <v>692430</v>
@@ -7168,18 +7513,21 @@
         <v>1872</v>
       </c>
       <c r="Q109">
-        <v>159646</v>
+        <v>147125</v>
       </c>
       <c r="R109">
         <v>11</v>
       </c>
-    </row>
-    <row r="110" spans="1:18">
+      <c r="S109" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19">
       <c r="A110" s="1">
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C110">
         <v>3902</v>
@@ -7229,13 +7577,16 @@
       <c r="R110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:18">
+      <c r="S110" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19">
       <c r="A111" s="1">
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C111">
         <v>3664</v>
@@ -7285,13 +7636,16 @@
       <c r="R111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:18">
+      <c r="S111" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19">
       <c r="A112" s="1">
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C112">
         <v>3588</v>
@@ -7341,13 +7695,16 @@
       <c r="R112">
         <v>16</v>
       </c>
-    </row>
-    <row r="113" spans="1:18">
+      <c r="S112" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19">
       <c r="A113" s="1">
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C113">
         <v>3351</v>
@@ -7397,13 +7754,16 @@
       <c r="R113">
         <v>93</v>
       </c>
-    </row>
-    <row r="114" spans="1:18">
+      <c r="S113" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19">
       <c r="A114" s="1">
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C114">
         <v>3227</v>
@@ -7453,13 +7813,16 @@
       <c r="R114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:18">
+      <c r="S114" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19">
       <c r="A115" s="1">
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C115">
         <v>3128</v>
@@ -7509,13 +7872,16 @@
       <c r="R115">
         <v>42</v>
       </c>
-    </row>
-    <row r="116" spans="1:18">
+      <c r="S115" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19">
       <c r="A116" s="1">
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C116">
         <v>3068</v>
@@ -7565,13 +7931,16 @@
       <c r="R116">
         <v>21</v>
       </c>
-    </row>
-    <row r="117" spans="1:18">
+      <c r="S116" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19">
       <c r="A117" s="1">
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C117">
         <v>2888</v>
@@ -7621,13 +7990,16 @@
       <c r="R117">
         <v>39</v>
       </c>
-    </row>
-    <row r="118" spans="1:18">
+      <c r="S117" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19">
       <c r="A118" s="1">
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C118">
         <v>2841</v>
@@ -7677,13 +8049,16 @@
       <c r="R118">
         <v>128</v>
       </c>
-    </row>
-    <row r="119" spans="1:18">
+      <c r="S118" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19">
       <c r="A119" s="1">
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C119">
         <v>2835</v>
@@ -7733,13 +8108,16 @@
       <c r="R119">
         <v>9</v>
       </c>
-    </row>
-    <row r="120" spans="1:18">
+      <c r="S119" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19">
       <c r="A120" s="1">
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C120">
         <v>2802</v>
@@ -7789,13 +8167,16 @@
       <c r="R120">
         <v>79</v>
       </c>
-    </row>
-    <row r="121" spans="1:18">
+      <c r="S120" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19">
       <c r="A121" s="1">
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C121">
         <v>2566</v>
@@ -7845,13 +8226,16 @@
       <c r="R121">
         <v>20</v>
       </c>
-    </row>
-    <row r="122" spans="1:18">
+      <c r="S121" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19">
       <c r="A122" s="1">
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C122">
         <v>2565</v>
@@ -7901,13 +8285,16 @@
       <c r="R122">
         <v>752</v>
       </c>
-    </row>
-    <row r="123" spans="1:18">
+      <c r="S122" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19">
       <c r="A123" s="1">
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C123">
         <v>2463</v>
@@ -7957,13 +8344,16 @@
       <c r="R123">
         <v>931</v>
       </c>
-    </row>
-    <row r="124" spans="1:18">
+      <c r="S123" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19">
       <c r="A124" s="1">
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C124">
         <v>2306</v>
@@ -8013,13 +8403,16 @@
       <c r="R124">
         <v>167</v>
       </c>
-    </row>
-    <row r="125" spans="1:18">
+      <c r="S124" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19">
       <c r="A125" s="1">
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C125">
         <v>2247</v>
@@ -8069,13 +8462,16 @@
       <c r="R125">
         <v>15</v>
       </c>
-    </row>
-    <row r="126" spans="1:18">
+      <c r="S125" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19">
       <c r="A126" s="1">
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C126">
         <v>2241</v>
@@ -8125,13 +8521,16 @@
       <c r="R126">
         <v>465</v>
       </c>
-    </row>
-    <row r="127" spans="1:18">
+      <c r="S126" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19">
       <c r="A127" s="1">
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C127">
         <v>2231</v>
@@ -8181,13 +8580,16 @@
       <c r="R127">
         <v>5</v>
       </c>
-    </row>
-    <row r="128" spans="1:18">
+      <c r="S127" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19">
       <c r="A128" s="1">
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C128">
         <v>2147</v>
@@ -8237,13 +8639,16 @@
       <c r="R128">
         <v>11</v>
       </c>
-    </row>
-    <row r="129" spans="1:18">
+      <c r="S128" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19">
       <c r="A129" s="1">
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C129">
         <v>2134</v>
@@ -8293,13 +8698,16 @@
       <c r="R129">
         <v>44</v>
       </c>
-    </row>
-    <row r="130" spans="1:18">
+      <c r="S129" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19">
       <c r="A130" s="1">
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C130">
         <v>2052</v>
@@ -8349,13 +8757,16 @@
       <c r="R130">
         <v>1315</v>
       </c>
-    </row>
-    <row r="131" spans="1:18">
+      <c r="S130" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19">
       <c r="A131" s="1">
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C131">
         <v>1955</v>
@@ -8405,13 +8816,16 @@
       <c r="R131">
         <v>2</v>
       </c>
-    </row>
-    <row r="132" spans="1:18">
+      <c r="S131" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19">
       <c r="A132" s="1">
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C132">
         <v>1936</v>
@@ -8461,13 +8875,16 @@
       <c r="R132">
         <v>130</v>
       </c>
-    </row>
-    <row r="133" spans="1:18">
+      <c r="S132" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19">
       <c r="A133" s="1">
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C133">
         <v>1895</v>
@@ -8517,13 +8934,16 @@
       <c r="R133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:18">
+      <c r="S133" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19">
       <c r="A134" s="1">
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C134">
         <v>1797</v>
@@ -8573,13 +8993,16 @@
       <c r="R134">
         <v>249087</v>
       </c>
-    </row>
-    <row r="135" spans="1:18">
+      <c r="S134" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19">
       <c r="A135" s="1">
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C135">
         <v>1678</v>
@@ -8629,13 +9052,16 @@
       <c r="R135">
         <v>114</v>
       </c>
-    </row>
-    <row r="136" spans="1:18">
+      <c r="S135" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19">
       <c r="A136" s="1">
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C136">
         <v>1572</v>
@@ -8685,13 +9111,16 @@
       <c r="R136">
         <v>509</v>
       </c>
-    </row>
-    <row r="137" spans="1:18">
+      <c r="S136" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19">
       <c r="A137" s="1">
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C137">
         <v>1569</v>
@@ -8741,13 +9170,16 @@
       <c r="R137">
         <v>10</v>
       </c>
-    </row>
-    <row r="138" spans="1:18">
+      <c r="S137" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19">
       <c r="A138" s="1">
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C138">
         <v>1335</v>
@@ -8797,19 +9229,22 @@
       <c r="R138">
         <v>27</v>
       </c>
-    </row>
-    <row r="139" spans="1:18">
+      <c r="S138" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19">
       <c r="A139" s="1">
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C139">
-        <v>1288</v>
+        <v>1290</v>
       </c>
       <c r="D139">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E139">
         <v>32</v>
@@ -8824,28 +9259,28 @@
         <v>0</v>
       </c>
       <c r="I139">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J139">
         <v>0</v>
       </c>
       <c r="K139">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="L139">
         <v>17</v>
       </c>
       <c r="M139">
-        <v>211937</v>
+        <v>213534</v>
       </c>
       <c r="N139">
-        <v>112504</v>
+        <v>113351</v>
       </c>
       <c r="O139">
         <v>1883823</v>
       </c>
       <c r="P139">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="Q139">
         <v>58869</v>
@@ -8853,13 +9288,16 @@
       <c r="R139">
         <v>9</v>
       </c>
-    </row>
-    <row r="140" spans="1:18">
+      <c r="S139" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19">
       <c r="A140" s="1">
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C140">
         <v>1267</v>
@@ -8909,13 +9347,16 @@
       <c r="R140">
         <v>158</v>
       </c>
-    </row>
-    <row r="141" spans="1:18">
+      <c r="S140" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19">
       <c r="A141" s="1">
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C141">
         <v>1246</v>
@@ -8965,13 +9406,16 @@
       <c r="R141">
         <v>16</v>
       </c>
-    </row>
-    <row r="142" spans="1:18">
+      <c r="S141" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19">
       <c r="A142" s="1">
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C142">
         <v>1234</v>
@@ -9021,13 +9465,16 @@
       <c r="R142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:18">
+      <c r="S142" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19">
       <c r="A143" s="1">
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C143">
         <v>1233</v>
@@ -9077,19 +9524,22 @@
       <c r="R143">
         <v>5</v>
       </c>
-    </row>
-    <row r="144" spans="1:18">
+      <c r="S143" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19">
       <c r="A144" s="1">
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C144">
-        <v>1216</v>
+        <v>1225</v>
       </c>
       <c r="D144">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E144">
         <v>17</v>
@@ -9098,19 +9548,19 @@
         <v>0</v>
       </c>
       <c r="G144">
-        <v>996</v>
+        <v>1000</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I144">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="J144">
         <v>0</v>
       </c>
       <c r="K144">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L144">
         <v>4</v>
@@ -9125,7 +9575,7 @@
         <v>3988326</v>
       </c>
       <c r="P144">
-        <v>3280</v>
+        <v>3256</v>
       </c>
       <c r="Q144">
         <v>234607</v>
@@ -9133,13 +9583,16 @@
       <c r="R144">
         <v>15</v>
       </c>
-    </row>
-    <row r="145" spans="1:18">
+      <c r="S144" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="145" spans="1:19">
       <c r="A145" s="1">
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C145">
         <v>1175</v>
@@ -9189,13 +9642,16 @@
       <c r="R145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:18">
+      <c r="S145" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="146" spans="1:19">
       <c r="A146" s="1">
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C146">
         <v>1157</v>
@@ -9245,13 +9701,16 @@
       <c r="R146">
         <v>2683</v>
       </c>
-    </row>
-    <row r="147" spans="1:18">
+      <c r="S146" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="147" spans="1:19">
       <c r="A147" s="1">
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C147">
         <v>1125</v>
@@ -9301,13 +9760,16 @@
       <c r="R147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:18">
+      <c r="S147" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="148" spans="1:19">
       <c r="A148" s="1">
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C148">
         <v>1090</v>
@@ -9357,13 +9819,16 @@
       <c r="R148">
         <v>468</v>
       </c>
-    </row>
-    <row r="149" spans="1:18">
+      <c r="S148" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="149" spans="1:19">
       <c r="A149" s="1">
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C149">
         <v>1046</v>
@@ -9413,13 +9878,16 @@
       <c r="R149">
         <v>175</v>
       </c>
-    </row>
-    <row r="150" spans="1:18">
+      <c r="S149" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="150" spans="1:19">
       <c r="A150" s="1">
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C150">
         <v>1035</v>
@@ -9469,13 +9937,16 @@
       <c r="R150">
         <v>3</v>
       </c>
-    </row>
-    <row r="151" spans="1:18">
+      <c r="S150" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="151" spans="1:19">
       <c r="A151" s="1">
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C151">
         <v>1003</v>
@@ -9525,13 +9996,16 @@
       <c r="R151">
         <v>69</v>
       </c>
-    </row>
-    <row r="152" spans="1:18">
+      <c r="S151" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="152" spans="1:19">
       <c r="A152" s="1">
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C152">
         <v>955</v>
@@ -9581,13 +10055,16 @@
       <c r="R152">
         <v>21</v>
       </c>
-    </row>
-    <row r="153" spans="1:18">
+      <c r="S152" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="153" spans="1:19">
       <c r="A153" s="1">
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C153">
         <v>942</v>
@@ -9637,13 +10114,16 @@
       <c r="R153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:18">
+      <c r="S153" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="154" spans="1:19">
       <c r="A154" s="1">
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C154">
         <v>878</v>
@@ -9693,13 +10173,16 @@
       <c r="R154">
         <v>70</v>
       </c>
-    </row>
-    <row r="155" spans="1:18">
+      <c r="S154" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="155" spans="1:19">
       <c r="A155" s="1">
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C155">
         <v>878</v>
@@ -9749,13 +10232,16 @@
       <c r="R155">
         <v>63</v>
       </c>
-    </row>
-    <row r="156" spans="1:18">
+      <c r="S155" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="156" spans="1:19">
       <c r="A156" s="1">
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C156">
         <v>812</v>
@@ -9805,13 +10291,16 @@
       <c r="R156">
         <v>202</v>
       </c>
-    </row>
-    <row r="157" spans="1:18">
+      <c r="S156" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="157" spans="1:19">
       <c r="A157" s="1">
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C157">
         <v>804</v>
@@ -9861,13 +10350,16 @@
       <c r="R157">
         <v>34</v>
       </c>
-    </row>
-    <row r="158" spans="1:18">
+      <c r="S157" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="158" spans="1:19">
       <c r="A158" s="1">
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C158">
         <v>742</v>
@@ -9917,13 +10409,16 @@
       <c r="R158">
         <v>244</v>
       </c>
-    </row>
-    <row r="159" spans="1:18">
+      <c r="S158" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="159" spans="1:19">
       <c r="A159" s="1">
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C159">
         <v>712</v>
@@ -9974,12 +10469,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:18">
+    <row r="160" spans="1:19">
       <c r="A160" s="1">
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C160">
         <v>699</v>
@@ -10029,13 +10524,16 @@
       <c r="R160">
         <v>6</v>
       </c>
-    </row>
-    <row r="161" spans="1:18">
+      <c r="S160" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="161" spans="1:19">
       <c r="A161" s="1">
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C161">
         <v>681</v>
@@ -10085,13 +10583,16 @@
       <c r="R161">
         <v>25</v>
       </c>
-    </row>
-    <row r="162" spans="1:18">
+      <c r="S161" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="162" spans="1:19">
       <c r="A162" s="1">
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C162">
         <v>597</v>
@@ -10141,13 +10642,16 @@
       <c r="R162">
         <v>3</v>
       </c>
-    </row>
-    <row r="163" spans="1:18">
+      <c r="S162" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="163" spans="1:19">
       <c r="A163" s="1">
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C163">
         <v>554</v>
@@ -10197,13 +10701,16 @@
       <c r="R163">
         <v>149</v>
       </c>
-    </row>
-    <row r="164" spans="1:18">
+      <c r="S163" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="164" spans="1:19">
       <c r="A164" s="1">
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C164">
         <v>509</v>
@@ -10253,13 +10760,16 @@
       <c r="R164">
         <v>8</v>
       </c>
-    </row>
-    <row r="165" spans="1:18">
+      <c r="S164" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="165" spans="1:19">
       <c r="A165" s="1">
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C165">
         <v>509</v>
@@ -10309,19 +10819,22 @@
       <c r="R165">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:18">
+      <c r="S165" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="166" spans="1:19">
       <c r="A166" s="1">
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C166">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E166">
         <v>7</v>
@@ -10336,7 +10849,7 @@
         <v>0</v>
       </c>
       <c r="I166">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J166">
         <v>0</v>
@@ -10357,7 +10870,7 @@
         <v>23821432</v>
       </c>
       <c r="P166">
-        <v>49732</v>
+        <v>49628</v>
       </c>
       <c r="Q166">
         <v>3403062</v>
@@ -10365,13 +10878,16 @@
       <c r="R166">
         <v>287</v>
       </c>
-    </row>
-    <row r="167" spans="1:18">
+      <c r="S166" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="167" spans="1:19">
       <c r="A167" s="1">
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C167">
         <v>405</v>
@@ -10421,13 +10937,16 @@
       <c r="R167">
         <v>700</v>
       </c>
-    </row>
-    <row r="168" spans="1:18">
+      <c r="S167" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="168" spans="1:19">
       <c r="A168" s="1">
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C168">
         <v>399</v>
@@ -10477,13 +10996,16 @@
       <c r="R168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:18">
+      <c r="S168" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="169" spans="1:19">
       <c r="A169" s="1">
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C169">
         <v>359</v>
@@ -10533,13 +11055,16 @@
       <c r="R169">
         <v>436</v>
       </c>
-    </row>
-    <row r="170" spans="1:18">
+      <c r="S169" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="170" spans="1:19">
       <c r="A170" s="1">
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C170">
         <v>344</v>
@@ -10589,13 +11114,16 @@
       <c r="R170">
         <v>6</v>
       </c>
-    </row>
-    <row r="171" spans="1:18">
+      <c r="S170" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="171" spans="1:19">
       <c r="A171" s="1">
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C171">
         <v>336</v>
@@ -10645,13 +11173,16 @@
       <c r="R171">
         <v>31</v>
       </c>
-    </row>
-    <row r="172" spans="1:18">
+      <c r="S171" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="172" spans="1:19">
       <c r="A172" s="1">
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C172">
         <v>336</v>
@@ -10701,13 +11232,16 @@
       <c r="R172">
         <v>10</v>
       </c>
-    </row>
-    <row r="173" spans="1:18">
+      <c r="S172" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="173" spans="1:19">
       <c r="A173" s="1">
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C173">
         <v>295</v>
@@ -10757,13 +11291,16 @@
       <c r="R173">
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="1:18">
+      <c r="S173" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="174" spans="1:19">
       <c r="A174" s="1">
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C174">
         <v>293</v>
@@ -10813,13 +11350,16 @@
       <c r="R174">
         <v>83</v>
       </c>
-    </row>
-    <row r="175" spans="1:18">
+      <c r="S174" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="175" spans="1:19">
       <c r="A175" s="1">
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C175">
         <v>290</v>
@@ -10869,13 +11409,16 @@
       <c r="R175">
         <v>21</v>
       </c>
-    </row>
-    <row r="176" spans="1:18">
+      <c r="S175" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="176" spans="1:19">
       <c r="A176" s="1">
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C176">
         <v>285</v>
@@ -10925,13 +11468,16 @@
       <c r="R176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:18">
+      <c r="S176" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="177" spans="1:19">
       <c r="A177" s="1">
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C177">
         <v>275</v>
@@ -10981,13 +11527,16 @@
       <c r="R177">
         <v>132</v>
       </c>
-    </row>
-    <row r="178" spans="1:18">
+      <c r="S177" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="178" spans="1:19">
       <c r="A178" s="1">
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C178">
         <v>248</v>
@@ -11037,13 +11586,16 @@
       <c r="R178">
         <v>232</v>
       </c>
-    </row>
-    <row r="179" spans="1:18">
+      <c r="S178" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="179" spans="1:19">
       <c r="A179" s="1">
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C179">
         <v>203</v>
@@ -11093,131 +11645,140 @@
       <c r="R179">
         <v>2</v>
       </c>
-    </row>
-    <row r="180" spans="1:18">
+      <c r="S179" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="180" spans="1:19">
       <c r="A180" s="1">
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C180">
         <v>197</v>
       </c>
       <c r="D180">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F180">
         <v>0</v>
       </c>
       <c r="G180">
-        <v>184</v>
+        <v>39</v>
       </c>
       <c r="H180">
         <v>0</v>
       </c>
       <c r="I180">
-        <v>13</v>
+        <v>156</v>
       </c>
       <c r="J180">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K180">
-        <v>5847</v>
+        <v>5081</v>
       </c>
       <c r="L180">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="M180">
-        <v>24054</v>
+        <v>1342</v>
       </c>
       <c r="N180">
-        <v>713980</v>
+        <v>34613</v>
       </c>
       <c r="O180">
-        <v>33690</v>
+        <v>38771</v>
       </c>
       <c r="P180">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="Q180">
-        <v>0</v>
+        <v>19386</v>
       </c>
       <c r="R180">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:18">
+        <v>29</v>
+      </c>
+      <c r="S180" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="181" spans="1:19">
       <c r="A181" s="1">
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C181">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="D181">
         <v>0</v>
       </c>
       <c r="E181">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F181">
         <v>0</v>
       </c>
       <c r="G181">
-        <v>53</v>
+        <v>184</v>
       </c>
       <c r="H181">
         <v>0</v>
       </c>
       <c r="I181">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="J181">
         <v>0</v>
       </c>
       <c r="K181">
-        <v>21</v>
+        <v>5847</v>
       </c>
       <c r="L181">
         <v>0</v>
       </c>
       <c r="M181">
-        <v>10808</v>
+        <v>24054</v>
       </c>
       <c r="N181">
-        <v>1206</v>
+        <v>713980</v>
       </c>
       <c r="O181">
-        <v>8963936</v>
+        <v>33690</v>
       </c>
       <c r="P181">
-        <v>47681</v>
+        <v>171</v>
       </c>
       <c r="Q181">
-        <v>2987979</v>
+        <v>0</v>
       </c>
       <c r="R181">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="182" spans="1:18">
+        <v>1</v>
+      </c>
+      <c r="S181" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="182" spans="1:19">
       <c r="A182" s="1">
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C182">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="D182">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E182">
         <v>17</v>
@@ -11232,98 +11793,104 @@
         <v>0</v>
       </c>
       <c r="I182">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="J182">
         <v>3</v>
       </c>
       <c r="K182">
-        <v>4123</v>
+        <v>4403</v>
       </c>
       <c r="L182">
         <v>396</v>
       </c>
       <c r="M182">
-        <v>1272</v>
+        <v>1334</v>
       </c>
       <c r="N182">
-        <v>29632</v>
+        <v>31077</v>
       </c>
       <c r="O182">
         <v>42926</v>
       </c>
       <c r="P182">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="Q182">
         <v>2525</v>
       </c>
       <c r="R182">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="183" spans="1:18">
+        <v>32</v>
+      </c>
+      <c r="S182" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="183" spans="1:19">
       <c r="A183" s="1">
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C183">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="D183">
         <v>0</v>
       </c>
       <c r="E183">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F183">
         <v>0</v>
       </c>
       <c r="G183">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="H183">
         <v>0</v>
       </c>
       <c r="I183">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="J183">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K183">
-        <v>4385</v>
+        <v>21</v>
       </c>
       <c r="L183">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="M183">
-        <v>1342</v>
+        <v>10808</v>
       </c>
       <c r="N183">
-        <v>34613</v>
+        <v>1206</v>
       </c>
       <c r="O183">
-        <v>38771</v>
+        <v>8963936</v>
       </c>
       <c r="P183">
-        <v>228</v>
+        <v>47681</v>
       </c>
       <c r="Q183">
-        <v>19386</v>
+        <v>2987979</v>
       </c>
       <c r="R183">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="184" spans="1:18">
+        <v>829</v>
+      </c>
+      <c r="S183" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="184" spans="1:19">
       <c r="A184" s="1">
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C184">
         <v>157</v>
@@ -11373,13 +11940,16 @@
       <c r="R184">
         <v>2</v>
       </c>
-    </row>
-    <row r="185" spans="1:18">
+      <c r="S184" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="185" spans="1:19">
       <c r="A185" s="1">
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C185">
         <v>146</v>
@@ -11429,13 +11999,16 @@
       <c r="R185">
         <v>99</v>
       </c>
-    </row>
-    <row r="186" spans="1:18">
+      <c r="S185" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="186" spans="1:19">
       <c r="A186" s="1">
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C186">
         <v>142</v>
@@ -11485,13 +12058,16 @@
       <c r="R186">
         <v>10</v>
       </c>
-    </row>
-    <row r="187" spans="1:18">
+      <c r="S186" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="187" spans="1:19">
       <c r="A187" s="1">
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C187">
         <v>138</v>
@@ -11541,13 +12117,16 @@
       <c r="R187">
         <v>22</v>
       </c>
-    </row>
-    <row r="188" spans="1:18">
+      <c r="S187" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="188" spans="1:19">
       <c r="A188" s="1">
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C188">
         <v>131</v>
@@ -11597,13 +12176,16 @@
       <c r="R188">
         <v>1</v>
       </c>
-    </row>
-    <row r="189" spans="1:18">
+      <c r="S188" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="189" spans="1:19">
       <c r="A189" s="1">
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C189">
         <v>126</v>
@@ -11653,13 +12235,16 @@
       <c r="R189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:18">
+      <c r="S189" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="190" spans="1:19">
       <c r="A190" s="1">
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C190">
         <v>108</v>
@@ -11709,13 +12294,16 @@
       <c r="R190">
         <v>14</v>
       </c>
-    </row>
-    <row r="191" spans="1:18">
+      <c r="S190" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="191" spans="1:19">
       <c r="A191" s="1">
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C191">
         <v>92</v>
@@ -11765,13 +12353,16 @@
       <c r="R191">
         <v>65</v>
       </c>
-    </row>
-    <row r="192" spans="1:18">
+      <c r="S191" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="192" spans="1:19">
       <c r="A192" s="1">
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C192">
         <v>89</v>
@@ -11821,13 +12412,16 @@
       <c r="R192">
         <v>42</v>
       </c>
-    </row>
-    <row r="193" spans="1:18">
+      <c r="S192" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="193" spans="1:19">
       <c r="A193" s="1">
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C193">
         <v>69</v>
@@ -11877,13 +12471,16 @@
       <c r="R193">
         <v>46</v>
       </c>
-    </row>
-    <row r="194" spans="1:18">
+      <c r="S193" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="194" spans="1:19">
       <c r="A194" s="1">
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C194">
         <v>56</v>
@@ -11933,13 +12530,16 @@
       <c r="R194">
         <v>45</v>
       </c>
-    </row>
-    <row r="195" spans="1:18">
+      <c r="S194" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="195" spans="1:19">
       <c r="A195" s="1">
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C195">
         <v>53</v>
@@ -11989,13 +12589,16 @@
       <c r="R195">
         <v>33</v>
       </c>
-    </row>
-    <row r="196" spans="1:18">
+      <c r="S195" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="196" spans="1:19">
       <c r="A196" s="1">
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C196">
         <v>46</v>
@@ -12045,13 +12648,16 @@
       <c r="R196">
         <v>160</v>
       </c>
-    </row>
-    <row r="197" spans="1:18">
+      <c r="S196" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="197" spans="1:19">
       <c r="A197" s="1">
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C197">
         <v>31</v>
@@ -12101,13 +12707,16 @@
       <c r="R197">
         <v>152</v>
       </c>
-    </row>
-    <row r="198" spans="1:18">
+      <c r="S197" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="198" spans="1:19">
       <c r="A198" s="1">
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C198">
         <v>27</v>
@@ -12157,13 +12766,16 @@
       <c r="R198">
         <v>134</v>
       </c>
-    </row>
-    <row r="199" spans="1:18">
+      <c r="S198" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="199" spans="1:19">
       <c r="A199" s="1">
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C199">
         <v>25</v>
@@ -12213,13 +12825,16 @@
       <c r="R199">
         <v>46</v>
       </c>
-    </row>
-    <row r="200" spans="1:18">
+      <c r="S199" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="200" spans="1:19">
       <c r="A200" s="1">
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C200">
         <v>25</v>
@@ -12269,13 +12884,16 @@
       <c r="R200">
         <v>312</v>
       </c>
-    </row>
-    <row r="201" spans="1:18">
+      <c r="S200" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="201" spans="1:19">
       <c r="A201" s="1">
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C201">
         <v>24</v>
@@ -12325,13 +12943,16 @@
       <c r="R201">
         <v>18</v>
       </c>
-    </row>
-    <row r="202" spans="1:18">
+      <c r="S201" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="202" spans="1:19">
       <c r="A202" s="1">
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C202">
         <v>23</v>
@@ -12381,13 +13002,16 @@
       <c r="R202">
         <v>25</v>
       </c>
-    </row>
-    <row r="203" spans="1:18">
+      <c r="S202" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="203" spans="1:19">
       <c r="A203" s="1">
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C203">
         <v>20</v>
@@ -12420,10 +13044,10 @@
         <v>0</v>
       </c>
       <c r="M203">
-        <v>30727</v>
+        <v>31103</v>
       </c>
       <c r="N203">
-        <v>4217</v>
+        <v>4269</v>
       </c>
       <c r="O203">
         <v>7286328</v>
@@ -12435,15 +13059,18 @@
         <v>0</v>
       </c>
       <c r="R203">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="204" spans="1:18">
+        <v>234</v>
+      </c>
+      <c r="S203" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="204" spans="1:19">
       <c r="A204" s="1">
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C204">
         <v>18</v>
@@ -12493,13 +13120,16 @@
       <c r="R204">
         <v>72</v>
       </c>
-    </row>
-    <row r="205" spans="1:18">
+      <c r="S204" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="205" spans="1:19">
       <c r="A205" s="1">
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C205">
         <v>17</v>
@@ -12549,13 +13179,16 @@
       <c r="R205">
         <v>46</v>
       </c>
-    </row>
-    <row r="206" spans="1:18">
+      <c r="S205" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="206" spans="1:19">
       <c r="A206" s="1">
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C206">
         <v>14</v>
@@ -12605,13 +13238,16 @@
       <c r="R206">
         <v>9</v>
       </c>
-    </row>
-    <row r="207" spans="1:18">
+      <c r="S206" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="207" spans="1:19">
       <c r="A207" s="1">
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C207">
         <v>13</v>
@@ -12661,13 +13297,16 @@
       <c r="R207">
         <v>62</v>
       </c>
-    </row>
-    <row r="208" spans="1:18">
+      <c r="S207" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="208" spans="1:19">
       <c r="A208" s="1">
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C208">
         <v>13</v>
@@ -12717,13 +13356,16 @@
       <c r="R208">
         <v>2</v>
       </c>
-    </row>
-    <row r="209" spans="1:18">
+      <c r="S208" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="209" spans="1:19">
       <c r="A209" s="1">
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C209">
         <v>13</v>
@@ -12773,13 +13415,16 @@
       <c r="R209">
         <v>82</v>
       </c>
-    </row>
-    <row r="210" spans="1:18">
+      <c r="S209" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="210" spans="1:19">
       <c r="A210" s="1">
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C210">
         <v>12</v>
@@ -12829,13 +13474,16 @@
       <c r="R210">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:18">
+      <c r="S210" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="211" spans="1:19">
       <c r="A211" s="1">
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C211">
         <v>10</v>
@@ -12885,13 +13533,16 @@
       <c r="R211">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:18">
+      <c r="S211" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="212" spans="1:19">
       <c r="A212" s="1">
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C212">
         <v>9</v>
@@ -12942,12 +13593,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:18">
+    <row r="213" spans="1:19">
       <c r="A213" s="1">
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C213">
         <v>9</v>
@@ -12997,13 +13648,16 @@
       <c r="R213">
         <v>20</v>
       </c>
-    </row>
-    <row r="214" spans="1:18">
+      <c r="S213" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="214" spans="1:19">
       <c r="A214" s="1">
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C214">
         <v>9</v>
@@ -13053,13 +13707,16 @@
       <c r="R214">
         <v>8</v>
       </c>
-    </row>
-    <row r="215" spans="1:18">
+      <c r="S214" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="215" spans="1:19">
       <c r="A215" s="1">
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C215">
         <v>4</v>
@@ -13109,13 +13766,16 @@
       <c r="R215">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:18">
+      <c r="S215" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="216" spans="1:19">
       <c r="A216" s="1">
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C216">
         <v>3</v>
@@ -13164,6 +13824,9 @@
       </c>
       <c r="R216">
         <v>28</v>
+      </c>
+      <c r="S216" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>

--- a/corona-virus-cases_Aug_09_2020.xlsx
+++ b/corona-virus-cases_Aug_09_2020.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="240">
   <si>
     <t>Country</t>
   </si>
@@ -731,6 +731,9 @@
   </si>
   <si>
     <t>Australia/Oceania</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -2928,31 +2931,31 @@
         <v>48</v>
       </c>
       <c r="C32">
-        <v>82465</v>
+        <v>82515</v>
       </c>
       <c r="D32">
-        <v>141</v>
+        <v>191</v>
       </c>
       <c r="E32">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G32">
-        <v>57482</v>
+        <v>57483</v>
       </c>
       <c r="H32">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="I32">
-        <v>24389</v>
+        <v>24435</v>
       </c>
       <c r="J32">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="K32">
-        <v>8966</v>
+        <v>8971</v>
       </c>
       <c r="L32">
         <v>65</v>
@@ -2967,10 +2970,10 @@
         <v>9197590</v>
       </c>
       <c r="P32">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q32">
-        <v>15484</v>
+        <v>15406</v>
       </c>
       <c r="R32">
         <v>5</v>
@@ -3695,10 +3698,10 @@
         <v>61</v>
       </c>
       <c r="C45">
-        <v>54929</v>
+        <v>55104</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="E45">
         <v>27</v>
@@ -3713,13 +3716,13 @@
         <v>0</v>
       </c>
       <c r="I45">
-        <v>6319</v>
+        <v>6494</v>
       </c>
       <c r="J45">
         <v>0</v>
       </c>
       <c r="K45">
-        <v>9381</v>
+        <v>9411</v>
       </c>
       <c r="L45">
         <v>5</v>
@@ -3734,7 +3737,7 @@
         <v>5855183</v>
       </c>
       <c r="P45">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q45">
         <v>216859</v>
@@ -4055,10 +4058,10 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51">
         <v>40549</v>
@@ -4067,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="I51">
-        <v>2919</v>
+        <v>2918</v>
       </c>
       <c r="J51">
         <v>36</v>
@@ -4076,7 +4079,7 @@
         <v>25559</v>
       </c>
       <c r="L51">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M51">
         <v>892926</v>
@@ -4091,7 +4094,7 @@
         <v>39</v>
       </c>
       <c r="Q51">
-        <v>10602</v>
+        <v>10537</v>
       </c>
       <c r="R51">
         <v>2</v>
@@ -4167,49 +4170,49 @@
         <v>69</v>
       </c>
       <c r="C53">
-        <v>40185</v>
+        <v>40410</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="E53">
-        <v>785</v>
+        <v>791</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G53">
-        <v>32395</v>
+        <v>32520</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="I53">
-        <v>7005</v>
+        <v>7099</v>
       </c>
       <c r="J53">
         <v>0</v>
       </c>
       <c r="K53">
-        <v>13558</v>
+        <v>13634</v>
       </c>
       <c r="L53">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M53">
-        <v>174438</v>
+        <v>176014</v>
       </c>
       <c r="N53">
-        <v>58855</v>
+        <v>59387</v>
       </c>
       <c r="O53">
         <v>2963841</v>
       </c>
       <c r="P53">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q53">
-        <v>3776</v>
+        <v>3747</v>
       </c>
       <c r="R53">
         <v>17</v>
@@ -5111,10 +5114,10 @@
         <v>85</v>
       </c>
       <c r="C69">
-        <v>21919</v>
+        <v>22033</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="E69">
         <v>721</v>
@@ -5123,34 +5126,34 @@
         <v>0</v>
       </c>
       <c r="G69">
-        <v>19812</v>
+        <v>19923</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="I69">
-        <v>1386</v>
+        <v>1389</v>
       </c>
       <c r="J69">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K69">
-        <v>2432</v>
+        <v>2445</v>
       </c>
       <c r="L69">
         <v>80</v>
       </c>
       <c r="M69">
-        <v>955239</v>
+        <v>961868</v>
       </c>
       <c r="N69">
-        <v>105998</v>
+        <v>106734</v>
       </c>
       <c r="O69">
         <v>9011858</v>
       </c>
       <c r="P69">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="Q69">
         <v>12499</v>
@@ -10468,6 +10471,9 @@
       <c r="R159">
         <v>0</v>
       </c>
+      <c r="S159" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="160" spans="1:19">
       <c r="A160" s="1">
@@ -13591,6 +13597,9 @@
       </c>
       <c r="R212">
         <v>0</v>
+      </c>
+      <c r="S212" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="213" spans="1:19">
